--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="573">
   <si>
     <t xml:space="preserve">Procedimento</t>
   </si>
@@ -1730,6 +1730,18 @@
   </si>
   <si>
     <t xml:space="preserve">Y:\EMPRESAS\WANESSA GUILHERME DE SOUSA LTDA - 48219261000123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15618548541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y:\EMPRESAS\JOSE S.A</t>
   </si>
 </sst>
 </file>
@@ -1872,11 +1884,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1888,7 +1900,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2033,15 +2045,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE115"/>
+  <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="U1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G118" activeCellId="0" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67"/>
@@ -12820,6 +12832,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE115"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
